--- a/codebook-meta-analyses-aoc.xlsx
+++ b/codebook-meta-analyses-aoc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="2" r:id="rId1"/>
@@ -554,7 +554,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,13 +573,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -695,13 +688,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1018,7 +1011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -1032,17 +1025,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16383" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16383" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -17501,7 +17494,7 @@
       <c r="B11" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>146</v>
       </c>
     </row>
@@ -17712,7 +17705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
     </sheetView>
@@ -17740,26 +17733,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
       <c r="S1" s="18"/>
       <c r="T1" s="15"/>
     </row>
